--- a/InputFiles/CCDI/TC02_CCDI_phs000468_Diagnosisanatomic-C76.3PelvisNOS_Firstevt-Relapse.xlsx
+++ b/InputFiles/CCDI/TC02_CCDI_phs000468_Diagnosisanatomic-C76.3PelvisNOS_Firstevt-Relapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F84345-3CF9-45F0-806A-BD4DAB9FC7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D450C883-FCD2-BF4F-A060-257A704D3257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,148 +183,346 @@
 LEFT JOIN funding fd ON s.study_id = fd.study_id;  -- Changed alias from 'f' to 'fd' here</t>
   </si>
   <si>
-    <t xml:space="preserve">	with file_data as (
-select file_name, data_category, file_type, file_size, file_access, file_description,"study.id" studyid, "participant.id" as participantid from df_clinical_measure_file )
-SELECT fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access", std.dbgap_accession AS "Study ID", fd.participantid AS "Participant ID", null as "Sample ID"
-FROM 
-    df_study std
- LEFT JOIN  
-    file_data fd ON std.id = fd.studyid
-WHERE 
-    std.dbgap_accession = 'phs000468'</t>
-  </si>
-  <si>
     <t>TC02_CCDI_phs000468_Diagnosisanatomic-C76.3PelvisNOS_Firstevt-Relapse_TSVData.xlsx</t>
   </si>
   <si>
     <t>TC02_CCDI_phs000468_Diagnosisanatomic-C76.3PelvisNOS_Firstevt-Relapse_WebData.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">	with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ) 
+    <t>WITH diagnosis1 AS (
+  SELECT 
+    d."participant.id",
+    GROUP_CONCAT(
+      CASE 
+        WHEN COALESCE(CAST(d.age_at_diagnosis AS TEXT), '') IN ('', '-999') THEN NULL
+        ELSE CAST(d.age_at_diagnosis AS TEXT)
+      END,
+      ';'
+    ) AS age_days
+  FROM df_diagnosis d
+  WHERE d."participant.id" IS NOT NULL
+  GROUP BY d."participant.id"
+),
+diagnosis2 AS (
+  SELECT "participant.id",
+         GROUP_CONCAT(diagnosis, ';') AS diag
+  FROM (
+    SELECT DISTINCT "participant.id", COALESCE(diagnosis, '') AS diagnosis
+    FROM df_diagnosis
+    WHERE "participant.id" IS NOT NULL
+  )
+  GROUP BY "participant.id"
+),
+diagnosis3 AS (
+  SELECT "participant.id",
+         GROUP_CONCAT(anatomic_site, ';') AS ant_site
+  FROM (
+    SELECT DISTINCT "participant.id", COALESCE(anatomic_site, '') AS anatomic_site
+    FROM df_diagnosis
+    WHERE "participant.id" IS NOT NULL
+  )
+  GROUP BY "participant.id"
+),
+diagnosis4 AS (
+  SELECT "participant.id",
+         GROUP_CONCAT(diagnosis_category, ';') AS diagnosis_category
+  FROM (
+    SELECT DISTINCT "participant.id", COALESCE(diagnosis_category, '') AS diagnosis_category
+    FROM df_diagnosis
+    WHERE "participant.id" IS NOT NULL
+  )
+  GROUP BY "participant.id"
+),
+survival_agg AS (
+  SELECT s."participant.id",
+         MAX(CASE WHEN COALESCE(s.last_known_survival_status, '') &lt;&gt; '' 
+                  THEN s.last_known_survival_status ELSE '' END) AS last_known_survival_status
+  FROM df_survival s
+  GROUP BY s."participant.id"
+)
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	null AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000468' AND dgn.anatomic_site ='C76.3 : Pelvis, NOS' AND srv.first_event = 'Relapse'
-ORDER BY 
-    prt.participant_id ASC limit 100;</t>
+  prt.participant_id                          AS "Participant ID",
+  std.dbgap_accession                         AS "Study ID",
+  COALESCE(prt.sex_at_birth, '')              AS "Sex",
+  COALESCE(prt.race, '')                      AS "Race",
+  dgn2.diag                                   AS "Diagnosis",
+  dgn3.ant_site                               AS "Diagnosis Anatomic Site",
+  dgn4.diagnosis_category                     AS "Diagnosis Category",
+  COALESCE(
+    CASE 
+      WHEN COALESCE(dgn1.age_days, '') = '' THEN 'Not Reported'
+      ELSE dgn1.age_days
+    END,
+    'Not Reported'
+  )                                            AS "Age at Diagnosis (days)",
+  NULL                                         AS "Treatment Type",
+  COALESCE(sva.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_study std
+JOIN df_consent_group cg
+  ON std.id = cg."study.id"
+JOIN df_participant prt
+  ON cg.id = prt."consent_group.id"
+LEFT JOIN diagnosis1     dgn1 ON prt.id = dgn1."participant.id"
+LEFT JOIN diagnosis2     dgn2 ON prt.id = dgn2."participant.id"
+LEFT JOIN diagnosis3     dgn3 ON prt.id = dgn3."participant.id"
+LEFT JOIN diagnosis4     dgn4 ON prt.id = dgn4."participant.id"
+LEFT JOIN survival_agg   sva  ON prt.id = sva."participant.id"
+WHERE std.dbgap_accession = 'phs000468'
+  AND EXISTS (
+      SELECT 1
+      FROM df_survival s
+      WHERE s."participant.id" = prt.id
+        AND COALESCE(s.first_event, '') = 'Relapse'
+  )
+  AND EXISTS (
+      SELECT 1
+      FROM df_diagnosis d
+      WHERE d."participant.id" = prt.id
+        AND (
+             COALESCE(d.anatomic_site, '') LIKE '%Pelvis%'
+          OR COALESCE(d.anatomic_site, '') LIKE '%C76.3%'
+          OR COALESCE(d.anatomic_site, '') LIKE '%Pelvis, NOS%'
+        )
+  )
+ORDER BY prt.participant_id ASC;</t>
+  </si>
+  <si>
+    <t>WITH diag_by_sample AS (
+  SELECT 
+    d.sample_row_id,
+    GROUP_CONCAT(d.diagnosis, '; ') AS sample_diagnosis
+  FROM (
+    SELECT DISTINCT 
+      dd."sample.id" AS sample_row_id,
+      COALESCE(dd.diagnosis, '') AS diagnosis
+    FROM df_diagnosis dd
+    WHERE dd."sample.id" IS NOT NULL
+  ) d
+  GROUP BY d.sample_row_id
+),
+diagcat_by_sample AS (
+  SELECT
+    c.sample_row_id,
+    GROUP_CONCAT(c.diagnosis_category, '; ') AS sample_diag_category
+  FROM (
+    SELECT DISTINCT
+      dd."sample.id" AS sample_row_id,
+      COALESCE(dd.diagnosis_category, '') AS diagnosis_category
+    FROM df_diagnosis dd
+    WHERE dd."sample.id" IS NOT NULL
+  ) c
+  GROUP BY c.sample_row_id
+)
+SELECT DISTINCT
+  smp.sample_id                               AS "Sample ID",
+  prt.participant_id                           AS "Participant ID",
+  std.dbgap_accession                          AS "Study ID",
+  COALESCE(smp.anatomic_site, '')              AS "Sample Anatomic Site",
+  COALESCE(
+    CASE 
+      WHEN smp.participant_age_at_collection = -999 OR smp.participant_age_at_collection IS NULL 
+        THEN 'Not Reported'
+      ELSE CAST(smp.participant_age_at_collection AS TEXT)
+    END, 
+    'Not Reported'
+  )                                            AS "Age at Sample Collection (days)",
+  COALESCE(smp.sample_tumor_status, '')        AS "Sample Tumor Status",
+  COALESCE(smp.tumor_classification, '')       AS "Sample Tumor Classification",
+  COALESCE(dbs.sample_diagnosis, '')           AS "Sample Diagnosis",
+  COALESCE(dcs.sample_diag_category, '')       AS "Diagnosis Category"
+FROM df_study std
+JOIN df_consent_group cg
+  ON std.id = cg."study.id"
+JOIN df_participant prt
+  ON cg.id = prt."consent_group.id"
+LEFT JOIN df_sample smp
+  ON prt.id = smp."participant.id"
+LEFT JOIN diag_by_sample dbs
+  ON smp.id = dbs.sample_row_id
+LEFT JOIN diagcat_by_sample dcs
+  ON smp.id = dcs.sample_row_id
+WHERE std.dbgap_accession = 'phs000468'
+  AND smp.sample_id IS NOT NULL
+  AND EXISTS (
+      SELECT 1
+      FROM df_survival s
+      WHERE s."participant.id" = prt.id
+        AND COALESCE(s.first_event, '') = 'Relapse'
+  )
+  AND EXISTS (
+      SELECT 1
+      FROM df_diagnosis d
+      WHERE d."participant.id" = prt.id
+        AND (
+             COALESCE(d.anatomic_site, '') LIKE '%Pelvis%'
+          OR COALESCE(d.anatomic_site, '') LIKE '%C76.3%'
+          OR COALESCE(d.anatomic_site, '') LIKE '%Pelvis, NOS%'
+        )
+  )
+ORDER BY smp.sample_id ASC;</t>
+  </si>
+  <si>
+    <t>WITH file_data AS (
+  SELECT
+    cmf.file_name,
+    REPLACE(COALESCE(cmf.data_category, ''), ';', ', ') AS data_category,
+    COALESCE(cmf.file_description, '')                  AS file_description,
+    cmf.file_type,
+    cmf.file_access,
+    COALESCE(cmf.file_size, 0)                          AS file_size,
+    cmf."study.id"                                      AS study_row_id,
+    cmf."participant.id"                                AS participant_row_id
+  FROM df_clinical_measure_file cmf
+)
+SELECT DISTINCT
+  fd.file_name                                 AS "File Name",
+  fd.data_category                             AS "Data Category",
+  fd.file_description                          AS "File Description",
+  fd.file_type                                 AS "File Type",
+  CASE
+    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN
+      CASE
+        WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2)
+             = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+        ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+      END
+    WHEN fd.file_size &gt;= 1024 * 1024 THEN
+      CASE
+        WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2)
+             = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+        ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
+      END
+    WHEN fd.file_size &gt;= 1024 THEN
+      CASE
+        WHEN ROUND(fd.file_size / 1024.0, 2)
+             = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+        ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
+      END
+    ELSE
+      CASE
+        WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' B'
+        ELSE ROUND(fd.file_size, 2) || ' B'
+      END
+  END                                           AS "File Size",
+  COALESCE(fd.file_access, '')                  AS "File Access",
+  std.dbgap_accession                           AS "Study ID",
+  COALESCE(prt.participant_id, '')              AS "Participant ID",
+  ''                                            AS "Sample ID"
+FROM file_data fd
+JOIN df_study std
+  ON std.id = fd.study_row_id
+LEFT JOIN df_participant prt
+  ON prt.id = fd.participant_row_id
+WHERE std.dbgap_accession = 'phs000468'
+  AND EXISTS (
+    SELECT 1
+    FROM df_consent_group cg
+    JOIN df_participant prt2 ON cg.id = prt2."consent_group.id"
+    WHERE cg."study.id" = std.id
+      AND EXISTS (
+        SELECT 1
+        FROM df_survival s
+        WHERE s."participant.id" = prt2.id
+          AND COALESCE(s.first_event, '') = 'Relapse'
+      )
+      AND EXISTS (
+        SELECT 1
+        FROM df_diagnosis d
+        WHERE d."participant.id" = prt2.id
+          AND (
+               COALESCE(d.anatomic_site, '') LIKE '%Pelvis%'
+            OR COALESCE(d.anatomic_site, '') LIKE '%C76.3%'
+            OR COALESCE(d.anatomic_site, '') LIKE '%Pelvis, NOS%'
+          )
+      )
+  )
+ORDER BY fd.file_name ASC;</t>
   </si>
   <si>
     <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT cmf.id)) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-Left JOIN 
-    df_diagnosis diag ON prt.id = diag."participant.id"     
-LEFT JOIN 
-    df_clinical_measure_file cmf ON std.id = cmf."study.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-   std.dbgap_accession = 'phs000468'  AND  diag.anatomic_site ='C76.3 : Pelvis, NOS'  AND  srv.first_event = 'Relapse';</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
-            ELSE smp.participant_age_at_collection 
-        END, 
-        0
-    ) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-   Null AS "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-  std.dbgap_accession = 'phs000468' AND dgn.anatomic_site ='C76.3 : Pelvis, NOS' AND srv.first_event = 'Relapse'
-AND smp.sample_id IS NOT NULL
-ORDER BY 
-   smp.sample_id ASC
-;</t>
+  s.Studies,
+  p.Participants,
+  sa.Samples,
+  f.Files
+FROM
+  ( SELECT COUNT(DISTINCT std.dbgap_accession) AS Studies
+    FROM df_study std
+    WHERE std.dbgap_accession = 'phs000468'
+  ) s
+CROSS JOIN
+  ( SELECT COUNT(DISTINCT prt.participant_id) AS Participants
+    FROM df_study std
+    JOIN df_consent_group cg ON std.id = cg."study.id"
+    JOIN df_participant prt  ON cg.id  = prt."consent_group.id"
+    WHERE std.dbgap_accession = 'phs000468'
+      AND EXISTS (
+          SELECT 1
+          FROM df_survival s
+          WHERE s."participant.id" = prt.id
+            AND COALESCE(s.first_event, '') = 'Relapse'
+      )
+      AND EXISTS (
+          SELECT 1
+          FROM df_diagnosis d
+          WHERE d."participant.id" = prt.id
+            AND (
+                 COALESCE(d.anatomic_site, '') LIKE '%Pelvis%'
+              OR COALESCE(d.anatomic_site, '') LIKE '%C76.3%'
+              OR COALESCE(d.anatomic_site, '') LIKE '%Pelvis, NOS%'
+            )
+      )
+  ) p
+CROSS JOIN
+  ( SELECT COUNT(DISTINCT smp.sample_id) AS Samples
+    FROM df_study std
+    JOIN df_consent_group cg ON std.id = cg."study.id"
+    JOIN df_participant prt  ON cg.id  = prt."consent_group.id"
+    JOIN df_sample smp       ON prt.id = smp."participant.id"
+    WHERE std.dbgap_accession = 'phs000468'
+      AND smp.sample_id IS NOT NULL
+      AND EXISTS (
+          SELECT 1
+          FROM df_survival s
+          WHERE s."participant.id" = prt.id
+            AND COALESCE(s.first_event, '') = 'Relapse'
+      )
+      AND EXISTS (
+          SELECT 1
+          FROM df_diagnosis d
+          WHERE d."participant.id" = prt.id
+            AND (
+                 COALESCE(d.anatomic_site, '') LIKE '%Pelvis%'
+              OR COALESCE(d.anatomic_site, '') LIKE '%C76.3%'
+              OR COALESCE(d.anatomic_site, '') LIKE '%Pelvis, NOS%'
+            )
+      )
+  ) sa
+CROSS JOIN
+  ( SELECT COUNT(DISTINCT cmf.id) AS Files
+    FROM df_clinical_measure_file cmf
+    JOIN df_study std2 ON cmf."study.id" = std2.id
+    WHERE std2.dbgap_accession = 'phs000468'
+  ) f;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -384,14 +582,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,19 +918,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -746,24 +947,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="355.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="355.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -772,32 +973,32 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
